--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3325184.551007546</v>
+        <v>3322771.638501742</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7871270.2492431</v>
+        <v>7871270.249243099</v>
       </c>
     </row>
     <row r="11">
@@ -1376,16 +1376,16 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>311.7236160152347</v>
       </c>
       <c r="F11" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>241.6510731180183</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
         <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1546,7 +1546,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>275.9723987444507</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348609</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>182.3041501312257</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
         <v>280.7771218515423</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1771,16 +1771,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G16" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I16" t="n">
         <v>49.37728379124552</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>314.5096953211453</v>
+        <v>314.5096953211454</v>
       </c>
       <c r="C17" t="n">
-        <v>297.0487454286723</v>
+        <v>297.0487454286724</v>
       </c>
       <c r="D17" t="n">
-        <v>286.4588952783477</v>
+        <v>286.4588952783478</v>
       </c>
       <c r="E17" t="n">
-        <v>313.7062237299265</v>
+        <v>243.9557686402687</v>
       </c>
       <c r="F17" t="n">
         <v>338.6518993993762</v>
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>226.3836180449852</v>
+        <v>226.3836180449853</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.96361544584069</v>
       </c>
       <c r="T17" t="n">
-        <v>135.6938237972849</v>
+        <v>135.693823797285</v>
       </c>
       <c r="U17" t="n">
-        <v>182.7710256165667</v>
+        <v>182.7710256165668</v>
       </c>
       <c r="V17" t="n">
-        <v>230.7412724839822</v>
+        <v>259.5281121277997</v>
       </c>
       <c r="W17" t="n">
         <v>281.0168223750778</v>
@@ -1910,7 +1910,7 @@
         <v>301.5069543361338</v>
       </c>
       <c r="Y17" t="n">
-        <v>318.0137923137183</v>
+        <v>318.0137923137184</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2002,25 @@
         <v>111.6078338396021</v>
       </c>
       <c r="C19" t="n">
-        <v>99.02267475629259</v>
+        <v>99.02267475629266</v>
       </c>
       <c r="D19" t="n">
-        <v>80.39132667587711</v>
+        <v>80.39132667587718</v>
       </c>
       <c r="E19" t="n">
-        <v>78.20981630423393</v>
+        <v>78.209816304234</v>
       </c>
       <c r="F19" t="n">
-        <v>77.196901680596</v>
+        <v>77.19690168059607</v>
       </c>
       <c r="G19" t="n">
-        <v>97.80166191669298</v>
+        <v>97.80166191669305</v>
       </c>
       <c r="H19" t="n">
-        <v>76.53086857198554</v>
+        <v>76.53086857198561</v>
       </c>
       <c r="I19" t="n">
-        <v>28.12827406750286</v>
+        <v>28.12827406750294</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.7080063277121</v>
+        <v>20.70800632771217</v>
       </c>
       <c r="S19" t="n">
-        <v>121.5448789891066</v>
+        <v>121.5448789891067</v>
       </c>
       <c r="T19" t="n">
         <v>151.324802933834</v>
       </c>
       <c r="U19" t="n">
-        <v>217.9876918632776</v>
+        <v>217.9876918632777</v>
       </c>
       <c r="V19" t="n">
         <v>183.9134969814928</v>
@@ -2065,10 +2065,10 @@
         <v>218.2988519942558</v>
       </c>
       <c r="X19" t="n">
-        <v>157.4855090467019</v>
+        <v>157.485509046702</v>
       </c>
       <c r="Y19" t="n">
-        <v>150.3605070097595</v>
+        <v>150.3605070097596</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>314.5096953211453</v>
+        <v>314.5096953211454</v>
       </c>
       <c r="C20" t="n">
-        <v>297.0487454286723</v>
+        <v>297.0487454286724</v>
       </c>
       <c r="D20" t="n">
-        <v>155.0276832526489</v>
+        <v>286.4588952783478</v>
       </c>
       <c r="E20" t="n">
-        <v>313.7062237299265</v>
+        <v>313.7062237299266</v>
       </c>
       <c r="F20" t="n">
-        <v>338.6518993993762</v>
+        <v>152.5874830435855</v>
       </c>
       <c r="G20" t="n">
-        <v>342.6975793111182</v>
+        <v>342.6975793111183</v>
       </c>
       <c r="H20" t="n">
-        <v>226.3836180449852</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.96361544584059</v>
+        <v>40.96361544584067</v>
       </c>
       <c r="T20" t="n">
-        <v>135.6938237972849</v>
+        <v>135.693823797285</v>
       </c>
       <c r="U20" t="n">
-        <v>182.7710256165667</v>
+        <v>182.7710256165668</v>
       </c>
       <c r="V20" t="n">
         <v>259.5281121277997</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>281.0168223750778</v>
       </c>
       <c r="X20" t="n">
         <v>301.5069543361338</v>
       </c>
       <c r="Y20" t="n">
-        <v>318.0137923137183</v>
+        <v>318.0137923137184</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2239,25 @@
         <v>111.6078338396021</v>
       </c>
       <c r="C22" t="n">
-        <v>99.02267475629259</v>
+        <v>99.02267475629266</v>
       </c>
       <c r="D22" t="n">
-        <v>80.39132667587711</v>
+        <v>80.39132667587718</v>
       </c>
       <c r="E22" t="n">
-        <v>78.20981630423393</v>
+        <v>78.209816304234</v>
       </c>
       <c r="F22" t="n">
-        <v>77.196901680596</v>
+        <v>77.19690168059607</v>
       </c>
       <c r="G22" t="n">
-        <v>97.80166191669298</v>
+        <v>97.80166191669305</v>
       </c>
       <c r="H22" t="n">
-        <v>76.53086857198554</v>
+        <v>76.53086857198561</v>
       </c>
       <c r="I22" t="n">
-        <v>28.12827406750285</v>
+        <v>28.12827406750294</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.70800632771208</v>
+        <v>20.70800632771217</v>
       </c>
       <c r="S22" t="n">
-        <v>121.5448789891066</v>
+        <v>121.5448789891067</v>
       </c>
       <c r="T22" t="n">
         <v>151.324802933834</v>
       </c>
       <c r="U22" t="n">
-        <v>217.9876918632776</v>
+        <v>217.9876918632777</v>
       </c>
       <c r="V22" t="n">
         <v>183.9134969814928</v>
@@ -2302,10 +2302,10 @@
         <v>218.2988519942558</v>
       </c>
       <c r="X22" t="n">
-        <v>157.4855090467019</v>
+        <v>157.485509046702</v>
       </c>
       <c r="Y22" t="n">
-        <v>150.3605070097595</v>
+        <v>150.3605070097596</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>314.5096953211453</v>
+        <v>314.5096953211454</v>
       </c>
       <c r="C23" t="n">
-        <v>297.0487454286723</v>
+        <v>297.0487454286724</v>
       </c>
       <c r="D23" t="n">
-        <v>286.4588952783477</v>
+        <v>286.4588952783478</v>
       </c>
       <c r="E23" t="n">
-        <v>313.7062237299265</v>
+        <v>313.7062237299266</v>
       </c>
       <c r="F23" t="n">
         <v>338.6518993993762</v>
       </c>
       <c r="G23" t="n">
-        <v>342.6975793111182</v>
+        <v>342.6975793111183</v>
       </c>
       <c r="H23" t="n">
-        <v>226.3836180449852</v>
+        <v>226.3836180449853</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.96361544584063</v>
+        <v>40.96361544584069</v>
       </c>
       <c r="T23" t="n">
-        <v>135.6938237972849</v>
+        <v>135.693823797285</v>
       </c>
       <c r="U23" t="n">
         <v>182.7710256165668</v>
       </c>
       <c r="V23" t="n">
-        <v>259.5281121277997</v>
+        <v>259.5281121277998</v>
       </c>
       <c r="W23" t="n">
         <v>281.0168223750778</v>
@@ -2384,7 +2384,7 @@
         <v>301.5069543361338</v>
       </c>
       <c r="Y23" t="n">
-        <v>318.0137923137183</v>
+        <v>318.0137923137185</v>
       </c>
     </row>
     <row r="24">
@@ -2476,25 +2476,25 @@
         <v>111.6078338396021</v>
       </c>
       <c r="C25" t="n">
-        <v>99.0226747562926</v>
+        <v>99.02267475629267</v>
       </c>
       <c r="D25" t="n">
-        <v>80.39132667587712</v>
+        <v>80.3913266758772</v>
       </c>
       <c r="E25" t="n">
-        <v>78.20981630423394</v>
+        <v>78.20981630423401</v>
       </c>
       <c r="F25" t="n">
-        <v>77.19690168059601</v>
+        <v>77.19690168059608</v>
       </c>
       <c r="G25" t="n">
-        <v>97.80166191669299</v>
+        <v>97.80166191669306</v>
       </c>
       <c r="H25" t="n">
-        <v>76.53086857198555</v>
+        <v>76.53086857198562</v>
       </c>
       <c r="I25" t="n">
-        <v>28.12827406750288</v>
+        <v>28.12827406750295</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.70800632771211</v>
+        <v>20.70800632771218</v>
       </c>
       <c r="S25" t="n">
-        <v>121.5448789891066</v>
+        <v>121.5448789891067</v>
       </c>
       <c r="T25" t="n">
         <v>151.324802933834</v>
       </c>
       <c r="U25" t="n">
-        <v>217.9876918632776</v>
+        <v>217.9876918632777</v>
       </c>
       <c r="V25" t="n">
         <v>183.9134969814928</v>
@@ -2539,10 +2539,10 @@
         <v>218.2988519942558</v>
       </c>
       <c r="X25" t="n">
-        <v>157.4855090467019</v>
+        <v>157.485509046702</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.3605070097595</v>
+        <v>150.3605070097596</v>
       </c>
     </row>
     <row r="26">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448884</v>
       </c>
       <c r="C26" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247659</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2792,7 +2792,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
         <v>307.7079050020903</v>
@@ -2968,7 +2968,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124571</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231189</v>
@@ -3044,7 +3044,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958338</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210277</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403095</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
         <v>302.2658320988205</v>
@@ -3095,7 +3095,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797668</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433876</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957283</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124562</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145484</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>285.0491214353755</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429024</v>
       </c>
       <c r="D35" t="n">
         <v>256.9983213925779</v>
@@ -3275,13 +3275,13 @@
         <v>284.2456498441567</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592153</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007081</v>
+        <v>11.50304156007071</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115151</v>
+        <v>106.233249911515</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307968</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279484</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383226</v>
+        <v>82.14725995383216</v>
       </c>
       <c r="C37" t="n">
-        <v>69.5621008705228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010732</v>
+        <v>50.93075279010722</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846414</v>
+        <v>48.74924241846404</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482621</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>111.8803261135845</v>
+        <v>68.34108803092309</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621575</v>
+        <v>47.07029468621565</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>134.2912433677321</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775077</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609321</v>
+        <v>128.024935160932</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353754</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429024</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925779</v>
+        <v>256.9983213925778</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441566</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253495</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592153</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007081</v>
+        <v>11.5030415600707</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115151</v>
+        <v>106.233249911515</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307976</v>
+        <v>153.3104517307968</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420297</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893078</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279484</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383226</v>
+        <v>82.14725995383215</v>
       </c>
       <c r="C40" t="n">
-        <v>69.5621008705228</v>
+        <v>69.56210087052268</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010732</v>
+        <v>93.1376910545027</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846414</v>
+        <v>48.74924241846402</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482621</v>
+        <v>47.7363277948261</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092319</v>
+        <v>68.34108803092307</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621575</v>
+        <v>47.07029468621563</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333676</v>
       </c>
       <c r="T40" t="n">
-        <v>174.1560346887832</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775078</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957228</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609321</v>
+        <v>128.024935160932</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>310.7752483302255</v>
+        <v>310.7752483302254</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>293.3142984377524</v>
       </c>
       <c r="D41" t="n">
-        <v>282.7244482874278</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>309.9717767390067</v>
+        <v>232.5304484985361</v>
       </c>
       <c r="F41" t="n">
         <v>334.9174524084563</v>
@@ -3794,19 +3794,19 @@
         <v>131.959376806365</v>
       </c>
       <c r="U41" t="n">
-        <v>179.0365786256469</v>
+        <v>179.0365786256468</v>
       </c>
       <c r="V41" t="n">
-        <v>188.9421870467338</v>
+        <v>255.7936651368797</v>
       </c>
       <c r="W41" t="n">
-        <v>277.2823753841579</v>
+        <v>277.2823753841578</v>
       </c>
       <c r="X41" t="n">
         <v>297.7725073452139</v>
       </c>
       <c r="Y41" t="n">
-        <v>314.2793453227985</v>
+        <v>314.2793453227984</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>107.8733868486822</v>
+        <v>107.8733868486821</v>
       </c>
       <c r="C43" t="n">
-        <v>95.2882277653727</v>
+        <v>95.28822776537267</v>
       </c>
       <c r="D43" t="n">
-        <v>76.65687968495722</v>
+        <v>76.65687968495719</v>
       </c>
       <c r="E43" t="n">
-        <v>74.47536931331403</v>
+        <v>74.475369313314</v>
       </c>
       <c r="F43" t="n">
-        <v>73.46245468967611</v>
+        <v>73.46245468967608</v>
       </c>
       <c r="G43" t="n">
-        <v>94.06721492577309</v>
+        <v>94.06721492577306</v>
       </c>
       <c r="H43" t="n">
-        <v>104.2090778166063</v>
+        <v>72.79642158106562</v>
       </c>
       <c r="I43" t="n">
-        <v>24.39382707658297</v>
+        <v>24.39382707658294</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>16.97355933679221</v>
+        <v>16.97355933679218</v>
       </c>
       <c r="S43" t="n">
-        <v>117.8104319981868</v>
+        <v>117.8104319981867</v>
       </c>
       <c r="T43" t="n">
-        <v>147.5903559429141</v>
+        <v>179.0030121784553</v>
       </c>
       <c r="U43" t="n">
         <v>214.2532448723577</v>
       </c>
       <c r="V43" t="n">
-        <v>180.1790499905729</v>
+        <v>180.1790499905728</v>
       </c>
       <c r="W43" t="n">
-        <v>214.5644050033359</v>
+        <v>214.5644050033358</v>
       </c>
       <c r="X43" t="n">
         <v>153.751062055782</v>
       </c>
       <c r="Y43" t="n">
-        <v>146.6260600188397</v>
+        <v>146.6260600188396</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>310.7752483302255</v>
+        <v>310.7752483302254</v>
       </c>
       <c r="C44" t="n">
         <v>293.3142984377524</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>282.7244482874278</v>
       </c>
       <c r="E44" t="n">
-        <v>309.9717767390067</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>334.9174524084563</v>
@@ -3992,7 +3992,7 @@
         <v>338.9631323201983</v>
       </c>
       <c r="H44" t="n">
-        <v>145.2078428135947</v>
+        <v>172.4551712651736</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>37.22916845492075</v>
+        <v>37.2291684549207</v>
       </c>
       <c r="T44" t="n">
         <v>131.959376806365</v>
       </c>
       <c r="U44" t="n">
-        <v>179.0365786256469</v>
+        <v>179.0365786256468</v>
       </c>
       <c r="V44" t="n">
-        <v>255.7936651368798</v>
+        <v>255.7936651368797</v>
       </c>
       <c r="W44" t="n">
-        <v>277.2823753841579</v>
+        <v>277.2823753841578</v>
       </c>
       <c r="X44" t="n">
         <v>297.7725073452139</v>
       </c>
       <c r="Y44" t="n">
-        <v>314.2793453227985</v>
+        <v>314.2793453227984</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.8733868486822</v>
+        <v>107.8733868486821</v>
       </c>
       <c r="C46" t="n">
-        <v>126.7008840009131</v>
+        <v>95.28822776537267</v>
       </c>
       <c r="D46" t="n">
-        <v>76.65687968495725</v>
+        <v>76.65687968495719</v>
       </c>
       <c r="E46" t="n">
-        <v>74.47536931331406</v>
+        <v>74.475369313314</v>
       </c>
       <c r="F46" t="n">
-        <v>73.46245468967614</v>
+        <v>73.46245468967608</v>
       </c>
       <c r="G46" t="n">
-        <v>94.06721492577311</v>
+        <v>94.06721492577306</v>
       </c>
       <c r="H46" t="n">
-        <v>72.79642158106567</v>
+        <v>72.79642158106562</v>
       </c>
       <c r="I46" t="n">
-        <v>24.393827076583</v>
+        <v>24.39382707658294</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>16.97355933679223</v>
+        <v>48.38621557233343</v>
       </c>
       <c r="S46" t="n">
-        <v>117.8104319981868</v>
+        <v>117.8104319981867</v>
       </c>
       <c r="T46" t="n">
-        <v>147.5903559429141</v>
+        <v>147.590355942914</v>
       </c>
       <c r="U46" t="n">
         <v>214.2532448723577</v>
       </c>
       <c r="V46" t="n">
-        <v>180.1790499905729</v>
+        <v>180.1790499905728</v>
       </c>
       <c r="W46" t="n">
-        <v>214.5644050033359</v>
+        <v>214.5644050033358</v>
       </c>
       <c r="X46" t="n">
         <v>153.751062055782</v>
       </c>
       <c r="Y46" t="n">
-        <v>146.6260600188397</v>
+        <v>146.6260600188396</v>
       </c>
     </row>
   </sheetData>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1768.338774781835</v>
+        <v>1627.383644777221</v>
       </c>
       <c r="C11" t="n">
-        <v>1446.825890789496</v>
+        <v>1305.870760784882</v>
       </c>
       <c r="D11" t="n">
-        <v>1136.009825130819</v>
+        <v>995.0546951262053</v>
       </c>
       <c r="E11" t="n">
-        <v>797.671205480648</v>
+        <v>680.1823557168773</v>
       </c>
       <c r="F11" t="n">
-        <v>434.1349336391137</v>
+        <v>316.646083875343</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218345</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218345</v>
@@ -5039,52 +5039,52 @@
         <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609172</v>
+        <v>3262.764786084341</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609172</v>
+        <v>3104.236671416636</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609172</v>
+        <v>2898.155827638546</v>
       </c>
       <c r="V11" t="n">
-        <v>3081.513828560669</v>
+        <v>2614.542573243049</v>
       </c>
       <c r="W11" t="n">
-        <v>2776.194806238628</v>
+        <v>2309.223550921008</v>
       </c>
       <c r="X11" t="n">
-        <v>2450.178680925622</v>
+        <v>2309.223550921008</v>
       </c>
       <c r="Y11" t="n">
-        <v>2107.488981897884</v>
+        <v>1966.533851893269</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E13" t="n">
         <v>434.8492327268784</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770413</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998333</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657644</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218345</v>
@@ -5203,7 +5203,7 @@
         <v>408.6327023328087</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5230,19 +5230,19 @@
         <v>1938.403572105846</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V13" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874605</v>
+        <v>893.665081687461</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1386.143792573978</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C14" t="n">
-        <v>1386.143792573978</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.143792573978</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923807</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="F14" t="n">
         <v>684.2689010822731</v>
@@ -5276,10 +5276,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5288,40 +5288,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609172</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T14" t="n">
-        <v>3167.077706941467</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U14" t="n">
-        <v>2982.93210074831</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V14" t="n">
-        <v>2699.318846352812</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W14" t="n">
-        <v>2393.999824030771</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X14" t="n">
-        <v>2067.983698717765</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y14" t="n">
-        <v>1725.293999690027</v>
+        <v>1640.517726580262</v>
       </c>
     </row>
     <row r="15">
@@ -5331,70 +5331,70 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927785</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064588</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254607</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E16" t="n">
         <v>434.8492327268785</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G16" t="n">
         <v>215.1557144998337</v>
@@ -5434,13 +5434,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328084</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1543.531694090071</v>
+        <v>1473.076688949002</v>
       </c>
       <c r="C17" t="n">
-        <v>1243.482456283331</v>
+        <v>1173.027451142262</v>
       </c>
       <c r="D17" t="n">
-        <v>954.1300368102522</v>
+        <v>883.6750316691837</v>
       </c>
       <c r="E17" t="n">
-        <v>637.2550633456799</v>
+        <v>637.25506334568</v>
       </c>
       <c r="F17" t="n">
-        <v>295.1824376897442</v>
+        <v>295.1824376897443</v>
       </c>
       <c r="G17" t="n">
-        <v>295.1824376897442</v>
+        <v>295.1824376897443</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810568</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3284.228432269938</v>
       </c>
       <c r="T17" t="n">
-        <v>3188.541353127065</v>
+        <v>3147.163963787832</v>
       </c>
       <c r="U17" t="n">
-        <v>3003.924155534573</v>
+        <v>2962.546766195341</v>
       </c>
       <c r="V17" t="n">
-        <v>2770.85216312651</v>
+        <v>2700.397157985442</v>
       </c>
       <c r="W17" t="n">
-        <v>2486.996786990068</v>
+        <v>2416.541781849</v>
       </c>
       <c r="X17" t="n">
-        <v>2182.44430786266</v>
+        <v>2111.989302721592</v>
       </c>
       <c r="Y17" t="n">
-        <v>1861.218255020521</v>
+        <v>1790.763249879452</v>
       </c>
     </row>
     <row r="18">
@@ -5586,10 +5586,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5610,7 +5610,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
@@ -5647,61 +5647,61 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>609.2207265061037</v>
+        <v>609.2207265061041</v>
       </c>
       <c r="C19" t="n">
-        <v>509.1978227118687</v>
+        <v>509.1978227118692</v>
       </c>
       <c r="D19" t="n">
-        <v>427.9944624332049</v>
+        <v>427.9944624332053</v>
       </c>
       <c r="E19" t="n">
-        <v>348.9946479844838</v>
+        <v>348.9946479844841</v>
       </c>
       <c r="F19" t="n">
-        <v>271.0179796202454</v>
+        <v>271.0179796202457</v>
       </c>
       <c r="G19" t="n">
-        <v>172.2284221286363</v>
+        <v>172.2284221286365</v>
       </c>
       <c r="H19" t="n">
-        <v>94.92451448016611</v>
+        <v>94.9245144801662</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>660.8064733261675</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>1004.963518925716</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.371895631581</v>
       </c>
       <c r="O19" t="n">
-        <v>1645.701494551993</v>
+        <v>1645.701494551994</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.308994985652</v>
+        <v>1878.308994985653</v>
       </c>
       <c r="Q19" t="n">
-        <v>1955.919291138167</v>
+        <v>1955.919291138168</v>
       </c>
       <c r="R19" t="n">
-        <v>1935.002113029367</v>
+        <v>1935.002113029368</v>
       </c>
       <c r="S19" t="n">
-        <v>1812.229507989865</v>
+        <v>1812.229507989866</v>
       </c>
       <c r="T19" t="n">
-        <v>1659.376171693063</v>
+        <v>1659.376171693064</v>
       </c>
       <c r="U19" t="n">
         <v>1439.186583952379</v>
@@ -5710,13 +5710,13 @@
         <v>1253.415374880164</v>
       </c>
       <c r="W19" t="n">
-        <v>1032.911483976875</v>
+        <v>1032.911483976876</v>
       </c>
       <c r="X19" t="n">
-        <v>873.8352122125295</v>
+        <v>873.8352122125301</v>
       </c>
       <c r="Y19" t="n">
-        <v>721.9559122026715</v>
+        <v>721.9559122026719</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1756.932065085444</v>
+        <v>1473.076688949002</v>
       </c>
       <c r="C20" t="n">
-        <v>1456.882827278704</v>
+        <v>1173.027451142263</v>
       </c>
       <c r="D20" t="n">
-        <v>1300.289207831584</v>
+        <v>883.6750316691839</v>
       </c>
       <c r="E20" t="n">
-        <v>983.4142343670114</v>
+        <v>566.8000582046116</v>
       </c>
       <c r="F20" t="n">
-        <v>641.3416087110759</v>
+        <v>412.671287453515</v>
       </c>
       <c r="G20" t="n">
-        <v>295.1824376897442</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3284.228432269937</v>
+        <v>3284.228432269938</v>
       </c>
       <c r="T20" t="n">
         <v>3147.163963787832</v>
       </c>
       <c r="U20" t="n">
-        <v>2962.54676619534</v>
+        <v>2962.546766195341</v>
       </c>
       <c r="V20" t="n">
-        <v>2700.397157985441</v>
+        <v>2700.397157985442</v>
       </c>
       <c r="W20" t="n">
-        <v>2700.397157985441</v>
+        <v>2416.541781849</v>
       </c>
       <c r="X20" t="n">
-        <v>2395.844678858033</v>
+        <v>2111.989302721592</v>
       </c>
       <c r="Y20" t="n">
-        <v>2074.618626015893</v>
+        <v>1790.763249879452</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>609.2207265061037</v>
+        <v>609.2207265061041</v>
       </c>
       <c r="C22" t="n">
-        <v>509.1978227118687</v>
+        <v>509.1978227118692</v>
       </c>
       <c r="D22" t="n">
-        <v>427.9944624332049</v>
+        <v>427.9944624332053</v>
       </c>
       <c r="E22" t="n">
-        <v>348.9946479844838</v>
+        <v>348.9946479844841</v>
       </c>
       <c r="F22" t="n">
-        <v>271.0179796202454</v>
+        <v>271.0179796202457</v>
       </c>
       <c r="G22" t="n">
-        <v>172.2284221286363</v>
+        <v>172.2284221286365</v>
       </c>
       <c r="H22" t="n">
-        <v>94.9245144801661</v>
+        <v>94.9245144801662</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5926,19 +5926,19 @@
         <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.308994985653</v>
       </c>
       <c r="Q22" t="n">
-        <v>1955.919291138167</v>
+        <v>1955.919291138168</v>
       </c>
       <c r="R22" t="n">
-        <v>1935.002113029367</v>
+        <v>1935.002113029368</v>
       </c>
       <c r="S22" t="n">
-        <v>1812.229507989865</v>
+        <v>1812.229507989866</v>
       </c>
       <c r="T22" t="n">
-        <v>1659.376171693063</v>
+        <v>1659.376171693064</v>
       </c>
       <c r="U22" t="n">
         <v>1439.186583952379</v>
@@ -5947,13 +5947,13 @@
         <v>1253.415374880164</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.911483976875</v>
+        <v>1032.911483976876</v>
       </c>
       <c r="X22" t="n">
-        <v>873.8352122125295</v>
+        <v>873.8352122125301</v>
       </c>
       <c r="Y22" t="n">
-        <v>721.9559122026715</v>
+        <v>721.9559122026719</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1898.193195237165</v>
+        <v>1898.193195237166</v>
       </c>
       <c r="C23" t="n">
-        <v>1598.143957430425</v>
+        <v>1598.143957430426</v>
       </c>
       <c r="D23" t="n">
         <v>1308.791537957347</v>
       </c>
       <c r="E23" t="n">
-        <v>991.9165644927748</v>
+        <v>991.9165644927753</v>
       </c>
       <c r="F23" t="n">
-        <v>649.8439388368392</v>
+        <v>649.8439388368397</v>
       </c>
       <c r="G23" t="n">
-        <v>303.6847678155075</v>
+        <v>303.6847678155076</v>
       </c>
       <c r="H23" t="n">
         <v>75.0144465579467</v>
@@ -5990,25 +5990,25 @@
         <v>263.8935775169721</v>
       </c>
       <c r="K23" t="n">
-        <v>918.6169096522715</v>
+        <v>597.7129512068184</v>
       </c>
       <c r="L23" t="n">
-        <v>1369.65112290068</v>
+        <v>1048.747164455227</v>
       </c>
       <c r="M23" t="n">
-        <v>1903.183027572604</v>
+        <v>1582.279069127151</v>
       </c>
       <c r="N23" t="n">
-        <v>2449.961844631386</v>
+        <v>2168.679882898218</v>
       </c>
       <c r="O23" t="n">
-        <v>2952.934315510723</v>
+        <v>3048.644533227673</v>
       </c>
       <c r="P23" t="n">
         <v>3443.41889958485</v>
       </c>
       <c r="Q23" t="n">
-        <v>3691.705261340532</v>
+        <v>3691.705261340533</v>
       </c>
       <c r="R23" t="n">
         <v>3750.722327897335</v>
@@ -6020,19 +6020,19 @@
         <v>3572.280470075996</v>
       </c>
       <c r="U23" t="n">
-        <v>3387.663272483504</v>
+        <v>3387.663272483505</v>
       </c>
       <c r="V23" t="n">
-        <v>3125.513664273605</v>
+        <v>3125.513664273606</v>
       </c>
       <c r="W23" t="n">
-        <v>2841.658288137163</v>
+        <v>2841.658288137164</v>
       </c>
       <c r="X23" t="n">
         <v>2537.105809009755</v>
       </c>
       <c r="Y23" t="n">
-        <v>2215.879756167615</v>
+        <v>2215.879756167616</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>75.0144465579467</v>
       </c>
       <c r="J24" t="n">
-        <v>168.691716048564</v>
+        <v>168.6917160485644</v>
       </c>
       <c r="K24" t="n">
-        <v>406.9559150289111</v>
+        <v>406.9559150289115</v>
       </c>
       <c r="L24" t="n">
-        <v>773.6540753415763</v>
+        <v>773.6540753415768</v>
       </c>
       <c r="M24" t="n">
-        <v>1220.930400563892</v>
+        <v>1220.930400563893</v>
       </c>
       <c r="N24" t="n">
         <v>1694.453444118347</v>
       </c>
       <c r="O24" t="n">
-        <v>2105.414723536401</v>
+        <v>2105.414723536402</v>
       </c>
       <c r="P24" t="n">
-        <v>2415.914315012504</v>
+        <v>2415.914315012505</v>
       </c>
       <c r="Q24" t="n">
         <v>2573.555872659104</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>617.7230566318671</v>
+        <v>617.7230566318676</v>
       </c>
       <c r="C25" t="n">
-        <v>517.7001528376321</v>
+        <v>517.7001528376326</v>
       </c>
       <c r="D25" t="n">
-        <v>436.4967925589683</v>
+        <v>436.4967925589687</v>
       </c>
       <c r="E25" t="n">
-        <v>357.4969781102471</v>
+        <v>357.4969781102475</v>
       </c>
       <c r="F25" t="n">
-        <v>279.5203097460087</v>
+        <v>279.520309746009</v>
       </c>
       <c r="G25" t="n">
-        <v>180.7307522543996</v>
+        <v>180.7307522543998</v>
       </c>
       <c r="H25" t="n">
-        <v>103.4268446059294</v>
+        <v>103.4268446059295</v>
       </c>
       <c r="I25" t="n">
         <v>75.0144465579467</v>
       </c>
       <c r="J25" t="n">
-        <v>148.7618220545571</v>
+        <v>120.1370790048822</v>
       </c>
       <c r="K25" t="n">
-        <v>352.7490050034334</v>
+        <v>324.1242619537585</v>
       </c>
       <c r="L25" t="n">
-        <v>669.3088034519295</v>
+        <v>640.6840604022547</v>
       </c>
       <c r="M25" t="n">
-        <v>1013.465849051478</v>
+        <v>1013.46584905148</v>
       </c>
       <c r="N25" t="n">
-        <v>1354.874225757343</v>
+        <v>1354.874225757344</v>
       </c>
       <c r="O25" t="n">
-        <v>1654.203824677756</v>
+        <v>1654.203824677758</v>
       </c>
       <c r="P25" t="n">
-        <v>1886.811325111415</v>
+        <v>1886.811325111417</v>
       </c>
       <c r="Q25" t="n">
-        <v>1964.42162126393</v>
+        <v>1964.421621263931</v>
       </c>
       <c r="R25" t="n">
-        <v>1943.50444315513</v>
+        <v>1943.504443155131</v>
       </c>
       <c r="S25" t="n">
-        <v>1820.731838115628</v>
+        <v>1820.731838115629</v>
       </c>
       <c r="T25" t="n">
-        <v>1667.878501818826</v>
+        <v>1667.878501818827</v>
       </c>
       <c r="U25" t="n">
-        <v>1447.688914078142</v>
+        <v>1447.688914078143</v>
       </c>
       <c r="V25" t="n">
-        <v>1261.917705005927</v>
+        <v>1261.917705005928</v>
       </c>
       <c r="W25" t="n">
-        <v>1041.413814102638</v>
+        <v>1041.413814102639</v>
       </c>
       <c r="X25" t="n">
-        <v>882.3375423382929</v>
+        <v>882.3375423382936</v>
       </c>
       <c r="Y25" t="n">
-        <v>730.4582423284348</v>
+        <v>730.4582423284354</v>
       </c>
     </row>
     <row r="26">
@@ -6212,43 +6212,43 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K26" t="n">
-        <v>603.845421545561</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.87963479397</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M26" t="n">
-        <v>2033.429937623798</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285459</v>
+        <v>2135.190356524676</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164796</v>
+        <v>2826.495488321722</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521974</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q26" t="n">
         <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
         <v>3994.504809309627</v>
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873064</v>
@@ -6327,25 +6327,25 @@
         <v>2579.688342997846</v>
       </c>
       <c r="R27" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S27" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T27" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U27" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V27" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W27" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X27" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y27" t="n">
         <v>1124.393991965682</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G28" t="n">
         <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982175</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6400,10 +6400,10 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
         <v>2271.591606277852</v>
@@ -6412,13 +6412,13 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="29">
@@ -6449,43 +6449,43 @@
         <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467796</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K29" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M29" t="n">
-        <v>1755.817188486247</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.596005545029</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O29" t="n">
-        <v>2805.568476424366</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309627</v>
@@ -6497,13 +6497,13 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805549</v>
@@ -6537,16 +6537,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6637,7 +6637,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6649,7 +6649,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519665</v>
       </c>
     </row>
     <row r="32">
@@ -6680,49 +6680,49 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K32" t="n">
-        <v>771.251070565914</v>
+        <v>822.9179334642265</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1273.952146712635</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486247</v>
+        <v>1807.48405138456</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.596005545029</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O32" t="n">
-        <v>2805.568476424366</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094415</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q32" t="n">
         <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309627</v>
@@ -6740,7 +6740,7 @@
         <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805549</v>
@@ -6774,22 +6774,22 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899669</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257044</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913846</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415475</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982181</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350174</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570353</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519672</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.139768046498</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307339</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495726</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810541</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710107</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668173</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7026,13 +7026,13 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
@@ -7047,7 +7047,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>543.5641013650711</v>
+        <v>599.6022649647783</v>
       </c>
       <c r="C37" t="n">
-        <v>473.2993530110077</v>
+        <v>430.6660820368714</v>
       </c>
       <c r="D37" t="n">
-        <v>421.8541481725154</v>
+        <v>379.2208771983793</v>
       </c>
       <c r="E37" t="n">
-        <v>372.6124891639658</v>
+        <v>329.9792181898298</v>
       </c>
       <c r="F37" t="n">
-        <v>324.3939762398989</v>
+        <v>183.0892706919195</v>
       </c>
       <c r="G37" t="n">
-        <v>211.3835458221368</v>
+        <v>114.057868640482</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7120,25 +7120,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915319</v>
+        <v>1791.646827515026</v>
       </c>
       <c r="T37" t="n">
-        <v>1513.842048484845</v>
+        <v>1569.880212084551</v>
       </c>
       <c r="U37" t="n">
-        <v>1323.410616184332</v>
+        <v>1379.448779784039</v>
       </c>
       <c r="V37" t="n">
-        <v>1167.397562552288</v>
+        <v>1124.764291578152</v>
       </c>
       <c r="W37" t="n">
-        <v>976.6518270891713</v>
+        <v>934.0185561150347</v>
       </c>
       <c r="X37" t="n">
-        <v>847.3337107649975</v>
+        <v>804.700439790861</v>
       </c>
       <c r="Y37" t="n">
-        <v>626.5411316214673</v>
+        <v>682.5792952211744</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464968</v>
+        <v>894.1397680464981</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307327</v>
+        <v>581.8252978307341</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495726</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810543</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939507</v>
@@ -7193,31 +7193,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
         <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
         <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7245,19 +7245,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>499.5850729987466</v>
+        <v>444.8926667912281</v>
       </c>
       <c r="C40" t="n">
-        <v>429.3203246446831</v>
+        <v>374.6279184371647</v>
       </c>
       <c r="D40" t="n">
-        <v>377.8751198061909</v>
+        <v>280.5494426245357</v>
       </c>
       <c r="E40" t="n">
-        <v>328.6334607976412</v>
+        <v>231.3077836159862</v>
       </c>
       <c r="F40" t="n">
-        <v>280.4149478735744</v>
+        <v>183.0892706919195</v>
       </c>
       <c r="G40" t="n">
-        <v>211.3835458221368</v>
+        <v>114.057868640482</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1645.778206672847</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T40" t="n">
-        <v>1469.86302011852</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U40" t="n">
-        <v>1279.431587818007</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V40" t="n">
-        <v>1123.418534185964</v>
+        <v>1167.397562552289</v>
       </c>
       <c r="W40" t="n">
-        <v>932.6727987228468</v>
+        <v>877.980392515328</v>
       </c>
       <c r="X40" t="n">
-        <v>803.3546823986729</v>
+        <v>748.6622761911543</v>
       </c>
       <c r="Y40" t="n">
-        <v>582.5621032551428</v>
+        <v>527.8696970476242</v>
       </c>
     </row>
     <row r="41">
@@ -7385,55 +7385,55 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1570.780783916178</v>
+        <v>1503.254038370576</v>
       </c>
       <c r="C41" t="n">
-        <v>1570.780783916178</v>
+        <v>1206.976969241533</v>
       </c>
       <c r="D41" t="n">
-        <v>1285.200533120796</v>
+        <v>1206.976969241533</v>
       </c>
       <c r="E41" t="n">
-        <v>972.0977283339207</v>
+        <v>972.0977283339208</v>
       </c>
       <c r="F41" t="n">
-        <v>633.797271355682</v>
+        <v>633.7972713556821</v>
       </c>
       <c r="G41" t="n">
         <v>291.4102690120474</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
         <v>3288.000600947634</v>
@@ -7445,16 +7445,16 @@
         <v>2973.86327222843</v>
       </c>
       <c r="V41" t="n">
-        <v>2783.01257824183</v>
+        <v>2715.485832696228</v>
       </c>
       <c r="W41" t="n">
-        <v>2502.929370783085</v>
+        <v>2435.402625237483</v>
       </c>
       <c r="X41" t="n">
-        <v>2202.149060333374</v>
+        <v>2134.622314787772</v>
       </c>
       <c r="Y41" t="n">
-        <v>1884.695176168931</v>
+        <v>1817.168430623329</v>
       </c>
     </row>
     <row r="42">
@@ -7482,13 +7482,13 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031482</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>614.545501555701</v>
+        <v>582.8155457622254</v>
       </c>
       <c r="C43" t="n">
-        <v>518.2947664391629</v>
+        <v>486.5648106456874</v>
       </c>
       <c r="D43" t="n">
-        <v>440.863574838196</v>
+        <v>409.1336190447205</v>
       </c>
       <c r="E43" t="n">
-        <v>365.6359290671717</v>
+        <v>333.9059732736962</v>
       </c>
       <c r="F43" t="n">
-        <v>291.4314293806302</v>
+        <v>259.7014735871547</v>
       </c>
       <c r="G43" t="n">
-        <v>196.414040566718</v>
+        <v>164.6840847732425</v>
       </c>
       <c r="H43" t="n">
-        <v>91.15234580246926</v>
+        <v>91.1523458024692</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7597,22 +7597,22 @@
         <v>1791.149102295584</v>
       </c>
       <c r="T43" t="n">
-        <v>1642.067934676479</v>
+        <v>1610.337978883003</v>
       </c>
       <c r="U43" t="n">
-        <v>1425.650515613492</v>
+        <v>1393.920559820016</v>
       </c>
       <c r="V43" t="n">
-        <v>1243.651475218973</v>
+        <v>1211.921519425498</v>
       </c>
       <c r="W43" t="n">
-        <v>1026.919752993382</v>
+        <v>995.1897971999058</v>
       </c>
       <c r="X43" t="n">
-        <v>871.6156499067332</v>
+        <v>839.8856941132574</v>
       </c>
       <c r="Y43" t="n">
-        <v>723.5085185745719</v>
+        <v>691.7785627810962</v>
       </c>
     </row>
     <row r="44">
@@ -7628,58 +7628,58 @@
         <v>1206.976969241533</v>
       </c>
       <c r="D44" t="n">
-        <v>1206.976969241533</v>
+        <v>921.3967184461516</v>
       </c>
       <c r="E44" t="n">
-        <v>893.8741644546578</v>
+        <v>921.3967184461516</v>
       </c>
       <c r="F44" t="n">
-        <v>555.5737074764193</v>
+        <v>583.0962614679129</v>
       </c>
       <c r="G44" t="n">
-        <v>213.1867051327841</v>
+        <v>240.7092591242779</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3288.000600947635</v>
+        <v>3288.000600947634</v>
       </c>
       <c r="T44" t="n">
-        <v>3154.708301143226</v>
+        <v>3154.708301143225</v>
       </c>
       <c r="U44" t="n">
-        <v>2973.863272228431</v>
+        <v>2973.86327222843</v>
       </c>
       <c r="V44" t="n">
         <v>2715.485832696228</v>
@@ -7688,7 +7688,7 @@
         <v>2435.402625237483</v>
       </c>
       <c r="X44" t="n">
-        <v>2134.622314787773</v>
+        <v>2134.622314787772</v>
       </c>
       <c r="Y44" t="n">
         <v>1817.168430623329</v>
@@ -7719,10 +7719,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>614.545501555701</v>
+        <v>582.8155457622254</v>
       </c>
       <c r="C46" t="n">
-        <v>486.5648106456878</v>
+        <v>486.5648106456874</v>
       </c>
       <c r="D46" t="n">
-        <v>409.1336190447208</v>
+        <v>409.1336190447205</v>
       </c>
       <c r="E46" t="n">
-        <v>333.9059732736965</v>
+        <v>333.9059732736962</v>
       </c>
       <c r="F46" t="n">
-        <v>259.701473587155</v>
+        <v>259.7014735871547</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6840847732427</v>
+        <v>164.6840847732425</v>
       </c>
       <c r="H46" t="n">
-        <v>91.15234580246928</v>
+        <v>91.1523458024692</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
         <v>111.6347488791189</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1910.149538657389</v>
+        <v>1878.419582863913</v>
       </c>
       <c r="S46" t="n">
-        <v>1791.149102295584</v>
+        <v>1759.419146502108</v>
       </c>
       <c r="T46" t="n">
-        <v>1642.067934676479</v>
+        <v>1610.337978883003</v>
       </c>
       <c r="U46" t="n">
-        <v>1425.650515613492</v>
+        <v>1393.920559820016</v>
       </c>
       <c r="V46" t="n">
-        <v>1243.651475218973</v>
+        <v>1211.921519425498</v>
       </c>
       <c r="W46" t="n">
-        <v>1026.919752993382</v>
+        <v>995.1897971999058</v>
       </c>
       <c r="X46" t="n">
-        <v>871.6156499067332</v>
+        <v>839.8856941132574</v>
       </c>
       <c r="Y46" t="n">
-        <v>723.5085185745719</v>
+        <v>691.7785627810962</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>161.2833466331805</v>
+        <v>161.2833466331808</v>
       </c>
       <c r="K8" t="n">
-        <v>190.4708996772605</v>
+        <v>190.4708996772609</v>
       </c>
       <c r="L8" t="n">
-        <v>199.0214867114926</v>
+        <v>199.0214867114931</v>
       </c>
       <c r="M8" t="n">
-        <v>189.4604205499957</v>
+        <v>189.4604205499962</v>
       </c>
       <c r="N8" t="n">
-        <v>187.8656757253945</v>
+        <v>187.8656757253949</v>
       </c>
       <c r="O8" t="n">
-        <v>190.8661912001292</v>
+        <v>190.8661912001297</v>
       </c>
       <c r="P8" t="n">
-        <v>197.749374161037</v>
+        <v>197.7493741610375</v>
       </c>
       <c r="Q8" t="n">
-        <v>197.1608845168175</v>
+        <v>197.1608845168178</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>115.0671825723699</v>
+        <v>115.0671825723701</v>
       </c>
       <c r="K9" t="n">
-        <v>117.7238752484538</v>
+        <v>117.7238752484541</v>
       </c>
       <c r="L9" t="n">
-        <v>111.503832688831</v>
+        <v>111.5038326888314</v>
       </c>
       <c r="M9" t="n">
-        <v>110.5673213586497</v>
+        <v>110.5673213586501</v>
       </c>
       <c r="N9" t="n">
-        <v>98.93952256809712</v>
+        <v>98.93952256809752</v>
       </c>
       <c r="O9" t="n">
-        <v>112.9545713195516</v>
+        <v>112.954571319552</v>
       </c>
       <c r="P9" t="n">
-        <v>110.1843514755395</v>
+        <v>110.1843514755398</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.078751713782</v>
+        <v>124.0787517137821</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>119.3562654747612</v>
+        <v>119.3562654747614</v>
       </c>
       <c r="M10" t="n">
-        <v>122.5532519960284</v>
+        <v>122.5532519960286</v>
       </c>
       <c r="N10" t="n">
-        <v>111.7023147290568</v>
+        <v>111.702314729057</v>
       </c>
       <c r="O10" t="n">
-        <v>123.6934388297867</v>
+        <v>123.6934388297869</v>
       </c>
       <c r="P10" t="n">
-        <v>125.095621918209</v>
+        <v>125.0956219182091</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.676880856393836e-12</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-4.405364961712621e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,13 +9647,13 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>40.02221890129749</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>96.67698759287765</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9881,19 +9881,19 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>274.8351763665443</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>190.2350110279893</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10121,19 +10121,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>287.0017854473921</v>
       </c>
       <c r="P29" t="n">
-        <v>277.220684154416</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>221.2853655744097</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10358,16 +10358,16 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>277.220684154416</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>5.329070518200751e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>23.2316174384345</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>39.12604873352404</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>42.32535640796425</v>
       </c>
       <c r="D14" t="n">
         <v>307.7079050020904</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>21.71588520908369</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23738,13 +23738,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>69.75045508965786</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>342.6975793111182</v>
+        <v>342.6975793111183</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.9636154458406</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>28.78683964381742</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23972,19 +23972,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>131.4312120256988</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>186.0644163557908</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>226.3836180449853</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>281.0168223750778</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-4.263256414560601e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-1.84741111297626e-13</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25403,7 +25403,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25445,7 +25445,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25628,13 +25628,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>293.3142984377524</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>282.7244482874278</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>77.44132824047047</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25685,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>66.85147809014599</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25868,10 +25868,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>282.7244482874278</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>309.9717767390066</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>77.44132824047068</v>
+        <v>50.19399978889175</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>738997.9214757544</v>
+        <v>738997.9214757546</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>622603.7992820961</v>
+        <v>622603.799282096</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>641547.7164310069</v>
+        <v>641547.7164310071</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>641547.716431007</v>
+        <v>641547.7164310071</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>693758.5780488114</v>
+        <v>693758.5780488115</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>667812.4072616486</v>
+        <v>667812.4072616484</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>667812.4072616484</v>
+        <v>667812.4072616486</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>644877.050612352</v>
+        <v>644877.0506123519</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>644877.050612352</v>
+        <v>644877.0506123519</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>778312.5217811863</v>
+      </c>
+      <c r="C2" t="n">
         <v>778312.5217811865</v>
       </c>
-      <c r="C2" t="n">
-        <v>778312.5217811862</v>
-      </c>
       <c r="D2" t="n">
-        <v>778330.129635534</v>
+        <v>778330.1296355339</v>
       </c>
       <c r="E2" t="n">
-        <v>726304.4593953512</v>
+        <v>726304.459395351</v>
       </c>
       <c r="F2" t="n">
-        <v>726304.4593953519</v>
+        <v>726304.4593953511</v>
       </c>
       <c r="G2" t="n">
-        <v>748800.3610096822</v>
+        <v>748800.3610096825</v>
       </c>
       <c r="H2" t="n">
-        <v>748800.3610096819</v>
+        <v>748800.3610096825</v>
       </c>
       <c r="I2" t="n">
+        <v>779989.6813710692</v>
+      </c>
+      <c r="J2" t="n">
+        <v>779989.6813710692</v>
+      </c>
+      <c r="K2" t="n">
         <v>779989.681371069</v>
       </c>
-      <c r="J2" t="n">
-        <v>779989.6813710695</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>779989.6813710694</v>
       </c>
-      <c r="L2" t="n">
-        <v>779989.6813710697</v>
-      </c>
       <c r="M2" t="n">
+        <v>779989.6813710683</v>
+      </c>
+      <c r="N2" t="n">
         <v>779989.6813710689</v>
       </c>
-      <c r="N2" t="n">
-        <v>779989.6813710688</v>
-      </c>
       <c r="O2" t="n">
-        <v>752753.945350029</v>
+        <v>752753.9453500297</v>
       </c>
       <c r="P2" t="n">
-        <v>752753.9453500293</v>
+        <v>752753.9453500296</v>
       </c>
     </row>
     <row r="3">
@@ -26369,34 +26369,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49603.99004265093</v>
+        <v>49603.99004265032</v>
       </c>
       <c r="E3" t="n">
-        <v>1114814.601112466</v>
+        <v>1114814.601112467</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>16999.20777899379</v>
+        <v>16999.2077789939</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28261.85161716372</v>
+        <v>28261.85161716369</v>
       </c>
       <c r="J3" t="n">
-        <v>40637.45238225413</v>
+        <v>40637.45238225414</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16999.20777899406</v>
+        <v>16999.20777899408</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927244</v>
+        <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>441649.2499958205</v>
       </c>
       <c r="D4" t="n">
-        <v>425002.2112916259</v>
+        <v>425002.2112916261</v>
       </c>
       <c r="E4" t="n">
         <v>58825.50137861085</v>
       </c>
       <c r="F4" t="n">
-        <v>58825.50137861084</v>
+        <v>58825.50137861086</v>
       </c>
       <c r="G4" t="n">
-        <v>72234.15779441221</v>
+        <v>72234.15779441223</v>
       </c>
       <c r="H4" t="n">
-        <v>72234.15779441218</v>
+        <v>72234.15779441223</v>
       </c>
       <c r="I4" t="n">
-        <v>87358.2623628678</v>
+        <v>87358.26236286777</v>
       </c>
       <c r="J4" t="n">
+        <v>84858.15940173098</v>
+      </c>
+      <c r="K4" t="n">
         <v>84858.15940173095</v>
       </c>
-      <c r="K4" t="n">
-        <v>84858.15940173097</v>
-      </c>
       <c r="L4" t="n">
-        <v>84858.15940173088</v>
+        <v>84858.15940173095</v>
       </c>
       <c r="M4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.01098815717</v>
       </c>
       <c r="N4" t="n">
-        <v>90964.01098815714</v>
+        <v>90964.01098815721</v>
       </c>
       <c r="O4" t="n">
-        <v>74600.57793586685</v>
+        <v>74600.57793586684</v>
       </c>
       <c r="P4" t="n">
         <v>74600.57793586684</v>
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34890.26850253475</v>
+        <v>34890.26850253473</v>
       </c>
       <c r="E5" t="n">
         <v>78255.49332178177</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
         <v>80041.87632024707</v>
@@ -26500,16 +26500,16 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>80355.82754432672</v>
+        <v>80355.8275443267</v>
       </c>
       <c r="P5" t="n">
-        <v>80355.82754432672</v>
+        <v>80355.8275443267</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>303035.671785366</v>
+        <v>303031.2582074978</v>
       </c>
       <c r="C6" t="n">
-        <v>303035.6717853657</v>
+        <v>303031.2582074978</v>
       </c>
       <c r="D6" t="n">
-        <v>268833.6597987225</v>
+        <v>268829.2925573134</v>
       </c>
       <c r="E6" t="n">
-        <v>-525591.1364175074</v>
+        <v>-525732.4133174443</v>
       </c>
       <c r="F6" t="n">
-        <v>589223.4646949591</v>
+        <v>589082.1877950224</v>
       </c>
       <c r="G6" t="n">
-        <v>579525.1191160291</v>
+        <v>579443.0419571836</v>
       </c>
       <c r="H6" t="n">
-        <v>596524.3268950226</v>
+        <v>596442.2497361775</v>
       </c>
       <c r="I6" t="n">
-        <v>577865.9201752103</v>
+        <v>577865.9201752106</v>
       </c>
       <c r="J6" t="n">
-        <v>565116.1279122783</v>
+        <v>565116.1279122778</v>
       </c>
       <c r="K6" t="n">
-        <v>605753.5802945322</v>
+        <v>605753.580294532</v>
       </c>
       <c r="L6" t="n">
-        <v>588754.3725155387</v>
+        <v>588754.3725155382</v>
       </c>
       <c r="M6" t="n">
-        <v>404338.9730839375</v>
+        <v>404338.973083937</v>
       </c>
       <c r="N6" t="n">
         <v>606507.0730766618</v>
       </c>
       <c r="O6" t="n">
-        <v>597797.5398698354</v>
+        <v>597725.8668803072</v>
       </c>
       <c r="P6" t="n">
-        <v>597797.5398698358</v>
+        <v>597725.866880307</v>
       </c>
     </row>
   </sheetData>
@@ -26695,37 +26695,37 @@
         <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G2" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="H2" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="I2" t="n">
-        <v>68.22414634233523</v>
+        <v>68.22414634233516</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859259</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810514</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="O2" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="P2" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325517</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076807</v>
+        <v>57.92057351076737</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26799,16 +26799,16 @@
         <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>937.6805819743337</v>
+        <v>937.6805819743338</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>21.24900972374268</v>
+        <v>21.2490097237426</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.7261268948499</v>
+        <v>25.72612689484998</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24900972374257</v>
+        <v>21.2490097237426</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951255</v>
+        <v>50.70958360951256</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076807</v>
+        <v>57.92057351076737</v>
       </c>
       <c r="E3" t="n">
-        <v>1031.85612708253</v>
+        <v>1031.856127082531</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.355757491032647e-13</v>
+        <v>-8.202073660032603e-15</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106.279126572041</v>
+        <v>106.2791265720409</v>
       </c>
       <c r="J4" t="n">
-        <v>76.65587923428097</v>
+        <v>76.65587923428075</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959711</v>
+        <v>648.4664495959707</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24900972374268</v>
+        <v>21.2490097237426</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.7261268948499</v>
+        <v>25.72612689484998</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27871,7 +27871,7 @@
         <v>337.0901626244419</v>
       </c>
       <c r="I8" t="n">
-        <v>201.4990738507119</v>
+        <v>201.499073850712</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>135.2425723098098</v>
+        <v>135.24257230981</v>
       </c>
       <c r="S8" t="n">
-        <v>203.7140793596056</v>
+        <v>203.7140793596057</v>
       </c>
       <c r="T8" t="n">
         <v>222.0765638936052</v>
@@ -27950,7 +27950,7 @@
         <v>111.032226284886</v>
       </c>
       <c r="I9" t="n">
-        <v>85.10723188858933</v>
+        <v>85.10723188858938</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>92.4227054864315</v>
+        <v>92.4227054864316</v>
       </c>
       <c r="S9" t="n">
         <v>169.3690802659312</v>
@@ -28032,10 +28032,10 @@
         <v>152.3094707112973</v>
       </c>
       <c r="J10" t="n">
-        <v>85.97478175284911</v>
+        <v>85.97478175284921</v>
       </c>
       <c r="K10" t="n">
-        <v>10.13465691657768</v>
+        <v>10.13465691657782</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.4160366515684</v>
+        <v>77.41603665156852</v>
       </c>
       <c r="R10" t="n">
-        <v>172.5970773348046</v>
+        <v>172.5970773348047</v>
       </c>
       <c r="S10" t="n">
         <v>222.1963728005765</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859227</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="C17" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="D17" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="E17" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="F17" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="G17" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="H17" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="T17" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="U17" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="V17" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="W17" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="X17" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="Y17" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="C19" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="D19" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="E19" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="F19" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="G19" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="H19" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="I19" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>28.91388186835968</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>28.91388186835809</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="S19" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="T19" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="U19" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="V19" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="W19" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="X19" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="C20" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="D20" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="E20" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="F20" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="G20" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="H20" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="T20" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="U20" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="V20" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="W20" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="X20" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="C22" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="D22" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="E22" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="F22" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="G22" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="H22" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="I22" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28998,34 +28998,34 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>28.91388186835928</v>
       </c>
       <c r="Q22" t="n">
-        <v>28.91388186835763</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="S22" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="T22" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="U22" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="V22" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="W22" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="X22" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.22414634233525</v>
+        <v>68.22414634233517</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>68.22414634233523</v>
+        <v>68.22414634233516</v>
       </c>
       <c r="C23" t="n">
-        <v>68.22414634233523</v>
+        <v>68.22414634233516</v>
       </c>
       <c r="D23" t="n">
-        <v>68.22414634233523</v>
+        <v>68.22414634233516</v>
       </c>
       <c r="E23" t="n">
-        <v>68.22414634233523</v>
+        <v>68.22414634233516</v>
       </c>
       <c r="F23" t="n">
-        <v>68.22414634233523</v>
+        <v>68.22414634233516</v>
       </c>
       <c r="G23" t="n">
-        <v>68.22414634233523</v>
+        <v>68.22414634233516</v>
       </c>
       <c r="H23" t="n">
-        <v>68.22414634233523</v>
+        <v>68.22414634233516</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.22414634233523</v>
+        <v>68.22414634233516</v>
       </c>
       <c r="T23" t="n">
-        <v>68.22414634233523</v>
+        <v>68.22414634233516</v>
       </c>
       <c r="U23" t="n">
-        <v>68.22414634233523</v>
+        <v>68.22414634233516</v>
       </c>
       <c r="V23" t="n">
-        <v>68.22414634233523</v>
+        <v>68.22414634233516</v>
       </c>
       <c r="W23" t="n">
-        <v>68.22414634233523</v>
+        <v>68.22414634233516</v>
       </c>
       <c r="X23" t="n">
-        <v>68.22414634233523</v>
+        <v>68.22414634233516</v>
       </c>
       <c r="Y23" t="n">
-        <v>68.22414634233523</v>
+        <v>68.22414634233516</v>
       </c>
     </row>
     <row r="24">
@@ -29193,31 +29193,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.22414634233523</v>
+        <v>68.22414634233516</v>
       </c>
       <c r="C25" t="n">
-        <v>68.22414634233523</v>
+        <v>68.22414634233516</v>
       </c>
       <c r="D25" t="n">
-        <v>68.22414634233523</v>
+        <v>68.22414634233516</v>
       </c>
       <c r="E25" t="n">
-        <v>68.22414634233523</v>
+        <v>68.22414634233516</v>
       </c>
       <c r="F25" t="n">
-        <v>68.22414634233523</v>
+        <v>68.22414634233516</v>
       </c>
       <c r="G25" t="n">
-        <v>68.22414634233523</v>
+        <v>68.22414634233516</v>
       </c>
       <c r="H25" t="n">
-        <v>68.22414634233523</v>
+        <v>68.22414634233516</v>
       </c>
       <c r="I25" t="n">
-        <v>68.22414634233523</v>
+        <v>68.22414634233516</v>
       </c>
       <c r="J25" t="n">
-        <v>28.91388186835844</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>28.91388186835985</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>68.22414634233523</v>
+        <v>68.22414634233516</v>
       </c>
       <c r="S25" t="n">
-        <v>68.22414634233523</v>
+        <v>68.22414634233516</v>
       </c>
       <c r="T25" t="n">
-        <v>68.22414634233523</v>
+        <v>68.22414634233516</v>
       </c>
       <c r="U25" t="n">
-        <v>68.22414634233523</v>
+        <v>68.22414634233516</v>
       </c>
       <c r="V25" t="n">
-        <v>68.22414634233523</v>
+        <v>68.22414634233516</v>
       </c>
       <c r="W25" t="n">
-        <v>68.22414634233523</v>
+        <v>68.22414634233516</v>
       </c>
       <c r="X25" t="n">
-        <v>68.22414634233523</v>
+        <v>68.22414634233516</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.22414634233523</v>
+        <v>68.22414634233516</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="29">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859381</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810514</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810514</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810514</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810514</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810514</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810514</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810514</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810514</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810514</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810514</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810514</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810514</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810514</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810514</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810514</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810514</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810514</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>54.14548214544375</v>
+        <v>97.68472022810514</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810514</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>55.47778196370976</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810514</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810514</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810514</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>97.68472022810514</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810515</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810504</v>
+        <v>55.47778196370966</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,25 +30426,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="T40" t="n">
-        <v>45.39291458738597</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="C41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="D41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="E41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="F41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="G41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="H41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="T41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="U41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="V41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="W41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="X41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="Y41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325517</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="C43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="D43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="E43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="F43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="G43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="H43" t="n">
-        <v>40.54593709771453</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="I43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="S43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="T43" t="n">
-        <v>71.95859333325514</v>
+        <v>40.54593709771393</v>
       </c>
       <c r="U43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="V43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="W43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="X43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325517</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="C44" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="D44" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="E44" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="F44" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="G44" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="H44" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="T44" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="U44" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="V44" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="W44" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="X44" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="Y44" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325517</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="C46" t="n">
-        <v>40.54593709771477</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="D46" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="E46" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="F46" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="G46" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="H46" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="I46" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>71.95859333325511</v>
+        <v>40.54593709771391</v>
       </c>
       <c r="S46" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="T46" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="U46" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="V46" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="W46" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="X46" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325517</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325517</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2328465266764544</v>
+        <v>0.2328465266764516</v>
       </c>
       <c r="H8" t="n">
-        <v>2.384639491325239</v>
+        <v>2.38463949132521</v>
       </c>
       <c r="I8" t="n">
-        <v>8.976815719694017</v>
+        <v>8.976815719693908</v>
       </c>
       <c r="J8" t="n">
-        <v>19.76255789350574</v>
+        <v>19.7625578935055</v>
       </c>
       <c r="K8" t="n">
-        <v>29.61895136772006</v>
+        <v>29.6189513677197</v>
       </c>
       <c r="L8" t="n">
-        <v>36.74492825849461</v>
+        <v>36.74492825849416</v>
       </c>
       <c r="M8" t="n">
-        <v>40.885812677277</v>
+        <v>40.8858126772765</v>
       </c>
       <c r="N8" t="n">
-        <v>41.54738787119648</v>
+        <v>41.54738787119597</v>
       </c>
       <c r="O8" t="n">
-        <v>39.23202022155748</v>
+        <v>39.23202022155701</v>
       </c>
       <c r="P8" t="n">
-        <v>33.48362159423251</v>
+        <v>33.4836215942321</v>
       </c>
       <c r="Q8" t="n">
-        <v>25.14480535763198</v>
+        <v>25.14480535763168</v>
       </c>
       <c r="R8" t="n">
-        <v>14.62654563133984</v>
+        <v>14.62654563133966</v>
       </c>
       <c r="S8" t="n">
-        <v>5.305990226639709</v>
+        <v>5.305990226639645</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01928567052618</v>
+        <v>1.019285670526167</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01862772213411635</v>
+        <v>0.01862772213411612</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1245838750986332</v>
+        <v>0.1245838750986317</v>
       </c>
       <c r="H9" t="n">
-        <v>1.203217951610484</v>
+        <v>1.20321795161047</v>
       </c>
       <c r="I9" t="n">
-        <v>4.289400962825749</v>
+        <v>4.289400962825697</v>
       </c>
       <c r="J9" t="n">
-        <v>11.77044409429675</v>
+        <v>11.77044409429661</v>
       </c>
       <c r="K9" t="n">
-        <v>20.11756372590517</v>
+        <v>20.11756372590493</v>
       </c>
       <c r="L9" t="n">
-        <v>27.05054709104315</v>
+        <v>27.05054709104282</v>
       </c>
       <c r="M9" t="n">
-        <v>31.5667125633686</v>
+        <v>31.56671256336821</v>
       </c>
       <c r="N9" t="n">
-        <v>32.40218951523619</v>
+        <v>32.4021895152358</v>
       </c>
       <c r="O9" t="n">
-        <v>29.64167312489279</v>
+        <v>29.64167312489243</v>
       </c>
       <c r="P9" t="n">
-        <v>23.79005593879076</v>
+        <v>23.79005593879047</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.90302237223957</v>
+        <v>15.90302237223938</v>
       </c>
       <c r="R9" t="n">
-        <v>7.735128666211634</v>
+        <v>7.73512866621154</v>
       </c>
       <c r="S9" t="n">
-        <v>2.314090837906629</v>
+        <v>2.3140908379066</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5021604439282626</v>
+        <v>0.5021604439282565</v>
       </c>
       <c r="U9" t="n">
-        <v>0.008196307572278504</v>
+        <v>0.008196307572278405</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.10444693583909</v>
+        <v>0.1044469358390887</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9286282113693641</v>
+        <v>0.9286282113693528</v>
       </c>
       <c r="I10" t="n">
-        <v>3.141004215960997</v>
+        <v>3.141004215960959</v>
       </c>
       <c r="J10" t="n">
-        <v>7.384398363823659</v>
+        <v>7.38439836382357</v>
       </c>
       <c r="K10" t="n">
-        <v>12.13483490930518</v>
+        <v>12.13483490930503</v>
       </c>
       <c r="L10" t="n">
-        <v>15.52841080647707</v>
+        <v>15.52841080647688</v>
       </c>
       <c r="M10" t="n">
-        <v>16.37253195157662</v>
+        <v>16.37253195157642</v>
       </c>
       <c r="N10" t="n">
-        <v>15.98322973617639</v>
+        <v>15.98322973617619</v>
       </c>
       <c r="O10" t="n">
-        <v>14.7630996220561</v>
+        <v>14.76309962205592</v>
       </c>
       <c r="P10" t="n">
-        <v>12.63238213093866</v>
+        <v>12.6323821309385</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.746006600125979</v>
+        <v>8.746006600125872</v>
       </c>
       <c r="R10" t="n">
-        <v>4.696314042364898</v>
+        <v>4.696314042364841</v>
       </c>
       <c r="S10" t="n">
-        <v>1.820225236395776</v>
+        <v>1.820225236395754</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4462732713124751</v>
+        <v>0.4462732713124697</v>
       </c>
       <c r="U10" t="n">
-        <v>0.005697105591223095</v>
+        <v>0.005697105591223025</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32330,10 +32330,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026442</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33269,7 +33269,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837924</v>
@@ -33500,7 +33500,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138795</v>
@@ -33515,7 +33515,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987486</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33983,7 +33983,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O39" t="n">
         <v>557.7086478970249</v>
@@ -34208,10 +34208,10 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138795</v>
@@ -35571,7 +35571,7 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M13" t="n">
         <v>394.6085160120764</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859626</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165881</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120762</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
         <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687142</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554004</v>
@@ -35978,10 +35978,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>348.6712540385578</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
@@ -36054,7 +36054,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>331.2670120909978</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882205</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>263.8709530134697</v>
       </c>
       <c r="Q22" t="n">
-        <v>107.3081204062513</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923319</v>
@@ -36367,13 +36367,13 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>592.3240543142088</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>495.4389738122493</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037194</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597752</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>74.49229848142464</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443195</v>
@@ -36522,7 +36522,7 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>376.5472612618436</v>
       </c>
       <c r="N25" t="n">
         <v>344.8569461675401</v>
@@ -36601,19 +36601,19 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>827.1370117794555</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>698.2880119162083</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222472</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
@@ -36768,7 +36768,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554004</v>
@@ -36841,19 +36841,19 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>795.0547863356111</v>
       </c>
       <c r="P29" t="n">
-        <v>675.9826703737876</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597773</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36917,7 +36917,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004591</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>558.4766521298101</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923319</v>
@@ -37078,16 +37078,16 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>675.9826703737876</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37148,7 +37148,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340053</v>
@@ -37163,7 +37163,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127271</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165868</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887919</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
         <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861325</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
         <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865553994</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923319</v>
@@ -37327,7 +37327,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923319</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37631,7 +37631,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525805</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554004</v>
@@ -37786,7 +37786,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302273</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129113</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597746</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340053</v>
@@ -38023,7 +38023,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302273</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129113</v>
